--- a/dummy data/leads.xlsx
+++ b/dummy data/leads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.l.pabon.cruz\Desktop\PHP\EM\dummy data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Disk 4/OneDrive/GitHub/Event-Manager-Global/dummy data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971384D8-1049-420E-9D51-F6F3D5E22EA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{971384D8-1049-420E-9D51-F6F3D5E22EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6BF97CFC-80AE-E247-BB1D-ECD4EF996414}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DB3EE49F-D964-4CCF-80CC-CBCDE209AA17}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22940" windowHeight="15400" xr2:uid="{DB3EE49F-D964-4CCF-80CC-CBCDE209AA17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <t>Member_ID</t>
   </si>
   <si>
-    <t>ERG_ID</t>
+    <t>Org_ID</t>
   </si>
 </sst>
 </file>
@@ -411,18 +411,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,8 +436,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{CAFDE664-1823-4C76-AB86-3DFBF6133E4F}"/>
@@ -451,7 +462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
